--- a/dist/checklists/xlsx/spat_seq_core.xlsx
+++ b/dist/checklists/xlsx/spat_seq_core.xlsx
@@ -1403,16 +1403,16 @@
   </sheetData>
   <dataValidations count="4">
     <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Study ID is required" prompt="Invalid input" sqref="A2:A101">
-      <formula1>AND(ISNUMBER(FIND(LOWER(A2), "abcdefghijklmnopqrstuvwxyz0123456789")), LEN(A2) &gt; 0)</formula1>
+      <formula1>AND(LEN(A2)&gt;0, A2=TEXTJOIN("", TRUE, IF(ISNUMBER(FIND(MID(A2, ROW(INDIRECT("1:"&amp;LEN(A2))), 1), "abcdefghijklmnopqrstuvwxyzABCDEFGHIJKLMNOPQRSTUVWXYZ0123456789")), MID(A2, ROW(INDIRECT("1:"&amp;LEN(A2))), 1), "")))</formula1>
     </dataValidation>
     <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="First Name is required" prompt="Invalid input" sqref="B2:B101">
-      <formula1>AND(ISNUMBER(FIND(LOWER(B2), "abcdefghijklmnopqrstuvwxyz")), LEN(B2) &gt; 0)</formula1>
+      <formula1>AND(LEN(B2)&gt;0, EXACT(B2, LOWER(B2)), B2=SUBSTITUTE(B2, " ", ""))</formula1>
     </dataValidation>
     <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Last Name is required" prompt="Invalid input" sqref="C2:C101">
-      <formula1>AND(ISNUMBER(FIND(LOWER(C2), "abcdefghijklmnopqrstuvwxyz")), LEN(C2) &gt; 0)</formula1>
+      <formula1>AND(LEN(C2)&gt;0, EXACT(C2, LOWER(C2)), C2=SUBSTITUTE(C2, " ", ""))</formula1>
     </dataValidation>
     <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Email is required" prompt="Invalid input" sqref="D2:D101">
-      <formula1>AND(ISNUMBER(FIND("@", D2)), ISNUMBER(FIND(".", D2, FIND("@", D2))), LEN(D2) - LEN(SUBSTITUTE(D2, "@", "")) = 1, LEN(D2) - LEN(SUBSTITUTE(D2, ".", "")) &gt; 1, LEN(D2) - LEN(SUBSTITUTE(D2, ".", "")) &lt;= 3)</formula1>
+      <formula1>AND(ISNUMBER(FIND("@", D2)), FIND(".", D2, FIND("@", D2)) &gt; FIND("@", D2))</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2600,13 +2600,13 @@
       <formula1>"Adult,Egg,Juvenile,Larva,Not Applicable,Not Collected,Not Provided,Other,Pupa,Seed,Spore"</formula1>
     </dataValidation>
     <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="" prompt="Invalid input" sqref="I2:I101">
-      <formula1>AND(ISNUMBER(FIND(LOWER(I2), "0123456789-")), LEN(I2) &gt; 0)</formula1>
+      <formula1>AND(LEN(I2)&gt;0, I2=SUBSTITUTE(SUBSTITUTE(I2, "-", ""), " ", ""), ISNUMBER(SUBSTITUTE(I2, "-", "") + 0))</formula1>
     </dataValidation>
     <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="geographic_location_latitude is required" prompt="Invalid input" sqref="J2:J101">
-      <formula1>AND(ISNUMBER(FIND(LOWER(J2), "0123456789-+.")), LEN(J2) &gt; 0)</formula1>
+      <formula1>AND(LEN(J2)&gt;0, J2=SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(J2, "-", ""), "+", ""), ".", ""), " ", ""), ISNUMBER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(J2, "-", ""), "+", ""), ".", "") + 0))</formula1>
     </dataValidation>
     <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="geographic_location_longitude is required" prompt="Invalid input" sqref="K2:K101">
-      <formula1>AND(ISNUMBER(FIND(LOWER(K2), "0123456789-+.")), LEN(K2) &gt; 0)</formula1>
+      <formula1>AND(LEN(K2)&gt;0, K2=SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(K2, "-", ""), "+", ""), ".", ""), " ", ""), ISNUMBER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(K2, "-", ""), "+", ""), ".", "") + 0))</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
